--- a/com.ecom.Shopify1/src/test/resources/TestData/HrEmailed.xlsx
+++ b/com.ecom.Shopify1/src/test/resources/TestData/HrEmailed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HrEmails" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="309">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -957,7 +957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -982,22 +982,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFF2F2F2"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Inter"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1009,7 +995,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,14 +1004,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF121212"/>
-        <bgColor rgb="FF222222"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1063,28 +1043,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,7 +1085,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1149,12 +1117,12 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF121212"/>
-      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF222222"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1165,313 +1133,1273 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:B356"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="1"/>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="1"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="1"/>
-    </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="1"/>
-    </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="1"/>
-    </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="2"/>
-    </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="3"/>
-    </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="3"/>
-    </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="3"/>
-    </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="3"/>
-    </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="3"/>
-    </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="3"/>
-    </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="3"/>
-    </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="3"/>
-    </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="3"/>
-    </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="3"/>
-    </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="3"/>
-    </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="3"/>
-    </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="3"/>
-    </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="3"/>
-    </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="3"/>
-    </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="3"/>
-    </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="3"/>
-    </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="3"/>
-    </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="1"/>
-    </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="4"/>
-    </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="1"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1491,8 +2419,8 @@
   </sheetPr>
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1504,1258 +2432,1258 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>308</v>
       </c>
     </row>
